--- a/9999.개인프로젝트/02.분석설계/프로젝트 계획서.xlsx
+++ b/9999.개인프로젝트/02.분석설계/프로젝트 계획서.xlsx
@@ -342,7 +342,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -363,15 +363,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -439,6 +430,15 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -720,107 +720,107 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,14 +1109,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="59.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="49.875" bestFit="1" customWidth="1"/>
@@ -1126,48 +1126,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:37" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="33"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
-      </c>
-      <c r="F3" s="34" t="s">
+        <v>45630</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="4"/>
@@ -1202,12 +1202,12 @@
       <c r="AK4" s="4"/>
     </row>
     <row r="5" spans="2:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1240,12 +1240,12 @@
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="2:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1278,13 +1278,13 @@
       <c r="AK6" s="5"/>
     </row>
     <row r="7" spans="2:37" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1318,15 +1318,15 @@
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1360,15 +1360,15 @@
       <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1402,15 +1402,15 @@
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1444,15 +1444,15 @@
       <c r="AK10" s="2"/>
     </row>
     <row r="11" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1486,7 +1486,7 @@
       <c r="AK11" s="2"/>
     </row>
     <row r="12" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1528,15 +1528,15 @@
       <c r="AK12" s="2"/>
     </row>
     <row r="13" spans="2:37" ht="132" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1570,7 +1570,7 @@
       <c r="AK13" s="2"/>
     </row>
     <row r="14" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1612,13 +1612,13 @@
       <c r="AK14" s="2"/>
     </row>
     <row r="15" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1652,13 +1652,13 @@
       <c r="AK15" s="2"/>
     </row>
     <row r="16" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1692,13 +1692,13 @@
       <c r="AK16" s="2"/>
     </row>
     <row r="17" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1732,13 +1732,13 @@
       <c r="AK17" s="2"/>
     </row>
     <row r="18" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1772,13 +1772,13 @@
       <c r="AK18" s="2"/>
     </row>
     <row r="19" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1812,7 +1812,7 @@
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
@@ -1820,7 +1820,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1854,13 +1854,13 @@
       <c r="AK20" s="2"/>
     </row>
     <row r="21" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1894,13 +1894,13 @@
       <c r="AK21" s="2"/>
     </row>
     <row r="22" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1934,13 +1934,13 @@
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1974,13 +1974,13 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2014,13 +2014,13 @@
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2054,13 +2054,13 @@
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2094,13 +2094,13 @@
       <c r="AK26" s="2"/>
     </row>
     <row r="27" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2134,13 +2134,13 @@
       <c r="AK27" s="2"/>
     </row>
     <row r="28" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2174,13 +2174,13 @@
       <c r="AK28" s="2"/>
     </row>
     <row r="29" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2214,13 +2214,13 @@
       <c r="AK29" s="2"/>
     </row>
     <row r="30" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2254,13 +2254,13 @@
       <c r="AK30" s="2"/>
     </row>
     <row r="31" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2294,13 +2294,13 @@
       <c r="AK31" s="2"/>
     </row>
     <row r="32" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2334,13 +2334,13 @@
       <c r="AK32" s="2"/>
     </row>
     <row r="33" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2374,13 +2374,13 @@
       <c r="AK33" s="2"/>
     </row>
     <row r="34" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2414,13 +2414,13 @@
       <c r="AK34" s="2"/>
     </row>
     <row r="35" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2454,13 +2454,13 @@
       <c r="AK35" s="2"/>
     </row>
     <row r="36" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2494,13 +2494,13 @@
       <c r="AK36" s="2"/>
     </row>
     <row r="37" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2534,13 +2534,13 @@
       <c r="AK37" s="2"/>
     </row>
     <row r="38" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2574,13 +2574,13 @@
       <c r="AK38" s="2"/>
     </row>
     <row r="39" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2614,13 +2614,13 @@
       <c r="AK39" s="2"/>
     </row>
     <row r="40" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2654,13 +2654,13 @@
       <c r="AK40" s="2"/>
     </row>
     <row r="41" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2694,13 +2694,13 @@
       <c r="AK41" s="2"/>
     </row>
     <row r="42" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2734,13 +2734,13 @@
       <c r="AK42" s="2"/>
     </row>
     <row r="43" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2774,13 +2774,13 @@
       <c r="AK43" s="2"/>
     </row>
     <row r="44" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2814,13 +2814,13 @@
       <c r="AK44" s="2"/>
     </row>
     <row r="45" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2854,13 +2854,13 @@
       <c r="AK45" s="2"/>
     </row>
     <row r="46" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2894,13 +2894,13 @@
       <c r="AK46" s="2"/>
     </row>
     <row r="47" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2934,13 +2934,13 @@
       <c r="AK47" s="2"/>
     </row>
     <row r="48" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2974,13 +2974,13 @@
       <c r="AK48" s="2"/>
     </row>
     <row r="49" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3014,13 +3014,13 @@
       <c r="AK49" s="2"/>
     </row>
     <row r="50" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3054,13 +3054,13 @@
       <c r="AK50" s="2"/>
     </row>
     <row r="51" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3094,13 +3094,13 @@
       <c r="AK51" s="2"/>
     </row>
     <row r="52" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3134,13 +3134,13 @@
       <c r="AK52" s="2"/>
     </row>
     <row r="53" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3174,13 +3174,13 @@
       <c r="AK53" s="2"/>
     </row>
     <row r="54" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3214,13 +3214,13 @@
       <c r="AK54" s="2"/>
     </row>
     <row r="55" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3254,13 +3254,13 @@
       <c r="AK55" s="2"/>
     </row>
     <row r="56" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3294,13 +3294,13 @@
       <c r="AK56" s="2"/>
     </row>
     <row r="57" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3334,13 +3334,13 @@
       <c r="AK57" s="2"/>
     </row>
     <row r="58" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3374,13 +3374,13 @@
       <c r="AK58" s="2"/>
     </row>
     <row r="59" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3414,13 +3414,13 @@
       <c r="AK59" s="2"/>
     </row>
     <row r="60" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3454,13 +3454,13 @@
       <c r="AK60" s="2"/>
     </row>
     <row r="61" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3494,13 +3494,13 @@
       <c r="AK61" s="2"/>
     </row>
     <row r="62" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3534,11 +3534,11 @@
       <c r="AK62" s="2"/>
     </row>
     <row r="63" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="39"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3572,11 +3572,11 @@
       <c r="AK63" s="2"/>
     </row>
     <row r="64" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="39"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3610,11 +3610,11 @@
       <c r="AK64" s="2"/>
     </row>
     <row r="65" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="27"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="8"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3648,11 +3648,11 @@
       <c r="AK65" s="2"/>
     </row>
     <row r="66" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3686,11 +3686,11 @@
       <c r="AK66" s="2"/>
     </row>
     <row r="67" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="39"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3724,13 +3724,13 @@
       <c r="AK67" s="2"/>
     </row>
     <row r="68" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3764,13 +3764,13 @@
       <c r="AK68" s="2"/>
     </row>
     <row r="69" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3804,13 +3804,13 @@
       <c r="AK69" s="2"/>
     </row>
     <row r="70" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3845,13 +3845,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/02.분석설계/프로젝트 계획서.xlsx
+++ b/9999.개인프로젝트/02.분석설계/프로젝트 계획서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>햄버거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>네비게이션 바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제품이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>View Product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제품 자동 슬라이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기사 이미지 공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,24 +226,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우측 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 제품 이미지 페이드 인-아웃 전환
-2. 제품명 클릭시 제품상세페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 클릭시 메인페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 오버시 색상 전환효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,6 +247,31 @@
   <si>
     <t>1. 서브페이지-Shop으로 이동
 2. 오버시 색상 전환효과</t>
+  </si>
+  <si>
+    <t>서브페이지-Shop-제품상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품사이즈 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add to bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지-Shop-최종구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 색상 전환효과
+2. 클릭시 오른쪽 화면 끝에서 왼쪽으로 장바구니 리스트 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 클릭시 오른쪽 끝에서 왼쪽으로 장바구니 리스트 노출
@@ -285,55 +281,238 @@
 5. Proceed to checkout 버튼 클릭시 구매페이지 이동
 6. Continue shopping 버튼 클릭시 서브페이지-Shop으로 이동
 7. 제품명 오버시 색상 전환 및 클릭시 제품 상세페이지로 이동
-8. 제품 이미지 클릭시 제품 상세페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Shop-제품상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품이미지 네비게이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품사이즈 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add to bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지-Shop-최종구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 결제가격</t>
+8. 제품 이미지 클릭시 제품 상세페이지로 이동
+9. 장바구니 리스트 화면 바깥 배경 투명도 낮춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 색상 전환효과
+2. 클릭시 서브페이지-Shop으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 홈페이지 최초 로딩시 쿠키 알림 노출
+2. ACCEPT 버튼 오버시 색상 전환효과
+3. 클릭시 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 및 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 왼쪽에서 오른쪽으로 밑줄 효과
+2. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품이미지 자동 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과
+2. 클릭시 서브페이지-Shop 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 색상전환 및 왼쪽에서 오른쪽으로 밑줄 효과
+2. 클릭시 서브페이지-Lookbook 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 오버시 색상 전환효과
+2. 클릭시 서브페이지-Shop-제품상세로 이동
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 이미지 중심을 기준으로 약 10% 확대
+2. 클릭시 준비중 알림 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 글자 색상 전환 효과
+2. 클릭시 준비중 알림 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하위 카테고리에만 오버시 왼쪽에서 오른쪽으로 밑줄 효과
+2. 클릭시 해당 카테고리 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 메인 페이지 상단으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품 이미지가 하나씩 위에서 아래로 내려오는 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 오버시 제품이미지를 중심으로 약10% 확대
+2. 클릭시 오른쪽에서 왼쪽으로 제품이미지 화면 노출
+3. 제품이미지 화면 바깥 화면 투명도 낮춤
+4. 바깥 화면 클릭시 제품 이미지 화면 닫힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 이전 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 제품이미지 화면 닫힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 서브페이지-Shop-제품상세로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제품 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 카테고리별 필터링
+2. 클릭시 필터링한 카테고리 노출
+* 해당 프로젝트에서는 모든 상품을 구현하지 않으므로 최소한의 필터기능만 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이미지 오버시 색상 전환효과
+2. 클릭시 서브페이지-Shop-제품상세 페이지로 이동
+* 해당 프로젝트에서는 사이즈 클릭에 대한 구현 진행하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이미지 오버시 제품 측면 이미지 페이지 인으로 전환하며 4개 사이즈 노출
+2. 클릭시 서브페이지-Shop-제품상세 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 이전 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편리한 페이지 이동을 위한 
+인디케이터 추가 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디케이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 색상 전환되는 효과만 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 해당 제품에 관한 데이터 장바구니에 추가 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 페이지 히스토리 나열 후 현재 페이지 볼드체로 표시
+2. 원하는 히스토리 페이지 클릭시 해당 페이지로 이동
+* 인디케이터를 어디서부터 노출시킬지 결정 필요
+* 같은 디자인 메인페이지에서도 노출시킬지, 다른 디자인으로 제작할지 결정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 장바구니 요약을 거쳐야만 최종구매페이지로 이동가능
+(구매고객의 정확한 주문을 위함)
+2. 이전 페이지 홀딩하며 페이지 위쪽에서 아래로 내려오면서 페이지 이동
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 개인정보수집, 광고&amp; 마케팅 수신 동의 체크박스 생성
+2. 고객 연락처, 국적/이름/주소/도시/우편번호
+3. 개인정보 저장 체크박스 생성, 체크할 시 정보 저장
+*해당 프로젝트에서 Shipping method,Payment는 박스만 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. close 버튼 클릭시 직전 페이지로 이동 
+2. 구매 제품 요약 및 최종 가격 계산
+3. 오른쪽 상단 장바구니 버튼 클릭시 장바구니 리스트 오른쪽에서 왼쪽으로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 클릭시 이전 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 연결</t>
+  </si>
+  <si>
+    <t>1. 이메일 오버시 왼쪽에서 오른쪽으로 밑줄 효과
+2. 이메일 클릭시 관계자 메일 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close : Close, Return 버튼 분할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 추가 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 페이드 인-아웃 전환효과</t>
+  </si>
+  <si>
+    <t>1. 제품 이미지 페이드 인-아웃-아웃 전환
+2. 제품명 클릭시 제품상세페이지 이동</t>
+  </si>
+  <si>
+    <t>1. 스크롤시 이미지 &gt; 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션</t>
+  </si>
+  <si>
+    <t>1. 스크롤시 제품명&gt;설명&gt;View product 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션</t>
+  </si>
+  <si>
+    <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션</t>
+  </si>
+  <si>
+    <t>1. 제품이미지 자동 페이드 인-아웃-아웃 전환 효과</t>
+  </si>
+  <si>
+    <t>1. 스크롤시 제목 &gt; 내용 순으로 아래쪽에서 위쪽으로
+페이드 인-아웃 되는 등장 애니메이션
+* 이번 프로젝트에서 기사 메인&amp;서브 상세페이지는 구현하지 않음.</t>
+  </si>
+  <si>
+    <t>1. 페이드 인-아웃 전환효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,10 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +619,23 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -698,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,12 +934,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -759,12 +946,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,15 +979,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,15 +988,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,17 +997,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,70 +1321,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AK70"/>
+  <dimension ref="B1:AL64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="37" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="32.375" customWidth="1"/>
+    <col min="9" max="38" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:37" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:38" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="14" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:38" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="40">
         <f ca="1">TODAY()</f>
         <v>45630</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:37" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:38" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1200,15 +1417,18 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
-    </row>
-    <row r="5" spans="2:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="2"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="2:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1238,15 +1458,16 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-    </row>
-    <row r="6" spans="2:37" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="5"/>
+      <c r="AL5" s="2"/>
+    </row>
+    <row r="6" spans="2:38" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1276,15 +1497,23 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="2:37" ht="80.099999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="2:38" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E7" s="36">
+        <v>45635</v>
+      </c>
+      <c r="F7" s="17">
+        <f>IF(E7="","",E7+1-D7)</f>
+        <v>6</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1316,16 +1545,21 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-    </row>
-    <row r="8" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8" spans="2:38" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E8" s="36">
+        <v>45635</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1358,16 +1592,21 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-    </row>
-    <row r="9" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="9" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E9" s="36">
+        <v>45635</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1400,16 +1639,21 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-    </row>
-    <row r="10" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL9" s="2"/>
+    </row>
+    <row r="10" spans="2:38" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E10" s="36">
+        <v>45635</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1442,16 +1686,21 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-    </row>
-    <row r="11" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL10" s="2"/>
+    </row>
+    <row r="11" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E11" s="36">
+        <v>45635</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1484,16 +1733,21 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-    </row>
-    <row r="12" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL11" s="2"/>
+    </row>
+    <row r="12" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E12" s="36">
+        <v>45635</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1526,16 +1780,21 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-    </row>
-    <row r="13" spans="2:37" ht="132" x14ac:dyDescent="0.3">
+      <c r="AL12" s="2"/>
+    </row>
+    <row r="13" spans="2:38" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E13" s="36">
+        <v>45635</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1568,16 +1827,21 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-    </row>
-    <row r="14" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL13" s="2"/>
+    </row>
+    <row r="14" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="36">
+        <v>45630</v>
+      </c>
+      <c r="E14" s="36">
+        <v>45635</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1610,14 +1874,21 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-    </row>
-    <row r="15" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL14" s="2"/>
+    </row>
+    <row r="15" spans="2:38" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E15" s="36">
+        <v>45638</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1650,14 +1921,19 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-    </row>
-    <row r="16" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL15" s="2"/>
+    </row>
+    <row r="16" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E16" s="36">
+        <v>45638</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1690,14 +1966,19 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-    </row>
-    <row r="17" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL16" s="2"/>
+    </row>
+    <row r="17" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E17" s="36">
+        <v>45638</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1730,14 +2011,21 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-    </row>
-    <row r="18" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL17" s="2"/>
+    </row>
+    <row r="18" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E18" s="36">
+        <v>45638</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1770,14 +2058,21 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-    </row>
-    <row r="19" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL18" s="2"/>
+    </row>
+    <row r="19" spans="2:38" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E19" s="36">
+        <v>45638</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1810,16 +2105,21 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-    </row>
-    <row r="20" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL19" s="2"/>
+    </row>
+    <row r="20" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="C20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E20" s="36">
+        <v>45638</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1852,14 +2152,21 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-    </row>
-    <row r="21" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL20" s="2"/>
+    </row>
+    <row r="21" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E21" s="36">
+        <v>45638</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1892,14 +2199,21 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-    </row>
-    <row r="22" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL21" s="2"/>
+    </row>
+    <row r="22" spans="2:38" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E22" s="36">
+        <v>45638</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1932,14 +2246,21 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-    </row>
-    <row r="23" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL22" s="2"/>
+    </row>
+    <row r="23" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E23" s="36">
+        <v>45638</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1972,14 +2293,21 @@
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
-    </row>
-    <row r="24" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL23" s="2"/>
+    </row>
+    <row r="24" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E24" s="36">
+        <v>45638</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2012,14 +2340,21 @@
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-    </row>
-    <row r="25" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL24" s="2"/>
+    </row>
+    <row r="25" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E25" s="36">
+        <v>45638</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2052,14 +2387,21 @@
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-    </row>
-    <row r="26" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL25" s="2"/>
+    </row>
+    <row r="26" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E26" s="36">
+        <v>45638</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2092,14 +2434,21 @@
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-    </row>
-    <row r="27" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL26" s="2"/>
+    </row>
+    <row r="27" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E27" s="36">
+        <v>45638</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2132,14 +2481,21 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
-    </row>
-    <row r="28" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL27" s="2"/>
+    </row>
+    <row r="28" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E28" s="36">
+        <v>45638</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2172,14 +2528,21 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-    </row>
-    <row r="29" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL28" s="2"/>
+    </row>
+    <row r="29" spans="2:38" ht="66" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E29" s="36">
+        <v>45638</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2212,14 +2575,21 @@
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
-    </row>
-    <row r="30" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL29" s="2"/>
+    </row>
+    <row r="30" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E30" s="36">
+        <v>45638</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2252,14 +2622,21 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
-    </row>
-    <row r="31" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL30" s="2"/>
+    </row>
+    <row r="31" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E31" s="36">
+        <v>45638</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2292,14 +2669,19 @@
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
-    </row>
-    <row r="32" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL31" s="2"/>
+    </row>
+    <row r="32" spans="2:38" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E32" s="36">
+        <v>45638</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2332,14 +2714,21 @@
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-    </row>
-    <row r="33" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL32" s="2"/>
+    </row>
+    <row r="33" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E33" s="36">
+        <v>45638</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2372,14 +2761,21 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-    </row>
-    <row r="34" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL33" s="2"/>
+    </row>
+    <row r="34" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="36">
+        <v>45636</v>
+      </c>
+      <c r="E34" s="36">
+        <v>45638</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2412,14 +2808,21 @@
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
-    </row>
-    <row r="35" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL34" s="2"/>
+    </row>
+    <row r="35" spans="2:38" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E35" s="36">
+        <v>45642</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2452,14 +2855,21 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
-    </row>
-    <row r="36" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="2:38" ht="66" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E36" s="36">
+        <v>45642</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2492,14 +2902,21 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
-    </row>
-    <row r="37" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL36" s="2"/>
+    </row>
+    <row r="37" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E37" s="36">
+        <v>45642</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2532,14 +2949,19 @@
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
-    </row>
-    <row r="38" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL37" s="2"/>
+    </row>
+    <row r="38" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E38" s="36">
+        <v>45642</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2572,14 +2994,21 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
-    </row>
-    <row r="39" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL38" s="2"/>
+    </row>
+    <row r="39" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E39" s="36">
+        <v>45642</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2612,14 +3041,21 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
-    </row>
-    <row r="40" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL39" s="2"/>
+    </row>
+    <row r="40" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E40" s="36">
+        <v>45642</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2652,14 +3088,21 @@
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
-    </row>
-    <row r="41" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL40" s="2"/>
+    </row>
+    <row r="41" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="36">
+        <v>45639</v>
+      </c>
+      <c r="E41" s="36">
+        <v>45642</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2692,14 +3135,21 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
-    </row>
-    <row r="42" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL41" s="2"/>
+    </row>
+    <row r="42" spans="2:38" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E42" s="36">
+        <v>45644</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2732,14 +3182,19 @@
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
-    </row>
-    <row r="43" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL42" s="2"/>
+    </row>
+    <row r="43" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E43" s="36">
+        <v>45644</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2772,14 +3227,21 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
-    </row>
-    <row r="44" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL43" s="2"/>
+    </row>
+    <row r="44" spans="2:38" ht="66" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E44" s="36">
+        <v>45644</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2812,14 +3274,21 @@
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
-    </row>
-    <row r="45" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL44" s="2"/>
+    </row>
+    <row r="45" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E45" s="36">
+        <v>45644</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2852,14 +3321,19 @@
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
-    </row>
-    <row r="46" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL45" s="2"/>
+    </row>
+    <row r="46" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E46" s="36">
+        <v>45644</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2892,14 +3366,21 @@
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
-    </row>
-    <row r="47" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL46" s="2"/>
+    </row>
+    <row r="47" spans="2:38" ht="33" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E47" s="36">
+        <v>45644</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2932,14 +3413,21 @@
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
-    </row>
-    <row r="48" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL47" s="2"/>
+    </row>
+    <row r="48" spans="2:38" ht="66" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E48" s="36">
+        <v>45644</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2972,14 +3460,21 @@
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
-    </row>
-    <row r="49" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL48" s="2"/>
+    </row>
+    <row r="49" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E49" s="36">
+        <v>45644</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3012,14 +3507,19 @@
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
-    </row>
-    <row r="50" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL49" s="2"/>
+    </row>
+    <row r="50" spans="2:38" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E50" s="36">
+        <v>45644</v>
+      </c>
       <c r="F50" s="7"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3052,14 +3552,21 @@
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
-    </row>
-    <row r="51" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL50" s="2"/>
+    </row>
+    <row r="51" spans="2:38" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E51" s="36">
+        <v>45644</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3092,14 +3599,21 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-    </row>
-    <row r="52" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL51" s="2"/>
+    </row>
+    <row r="52" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E52" s="36">
+        <v>45644</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3132,14 +3646,21 @@
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
       <c r="AK52" s="2"/>
-    </row>
-    <row r="53" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL52" s="2"/>
+    </row>
+    <row r="53" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="36">
+        <v>45643</v>
+      </c>
+      <c r="E53" s="36">
+        <v>45644</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3172,14 +3693,21 @@
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
-    </row>
-    <row r="54" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL53" s="2"/>
+    </row>
+    <row r="54" spans="2:38" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E54" s="36">
+        <v>45646</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3212,14 +3740,18 @@
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
-    </row>
-    <row r="55" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL54" s="2"/>
+    </row>
+    <row r="55" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D55" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E55" s="36">
+        <v>45646</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3252,14 +3784,21 @@
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
-    </row>
-    <row r="56" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL55" s="2"/>
+    </row>
+    <row r="56" spans="2:38" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E56" s="36">
+        <v>45646</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3292,14 +3831,21 @@
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
-    </row>
-    <row r="57" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL56" s="2"/>
+    </row>
+    <row r="57" spans="2:38" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E57" s="36">
+        <v>45646</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3332,14 +3878,21 @@
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
-    </row>
-    <row r="58" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="AL57" s="2"/>
+    </row>
+    <row r="58" spans="2:38" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E58" s="36">
+        <v>45646</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3372,14 +3925,21 @@
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
-    </row>
-    <row r="59" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL58" s="2"/>
+    </row>
+    <row r="59" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E59" s="36">
+        <v>45646</v>
+      </c>
       <c r="F59" s="7"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -3412,14 +3972,21 @@
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
-    </row>
-    <row r="60" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="AL59" s="2"/>
+    </row>
+    <row r="60" spans="2:38" ht="33" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="36">
+        <v>45645</v>
+      </c>
+      <c r="E60" s="36">
+        <v>45646</v>
+      </c>
       <c r="F60" s="7"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3452,14 +4019,19 @@
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
-    </row>
-    <row r="61" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="AL60" s="2"/>
+    </row>
+    <row r="61" spans="2:38" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E61" s="36">
+        <v>45650</v>
+      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3492,14 +4064,19 @@
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
       <c r="AK61" s="2"/>
-    </row>
-    <row r="62" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL61" s="2"/>
+    </row>
+    <row r="62" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E62" s="36">
+        <v>45650</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3532,12 +4109,19 @@
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
-    </row>
-    <row r="63" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="20"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="AL62" s="2"/>
+    </row>
+    <row r="63" spans="2:38" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E63" s="36">
+        <v>45650</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3570,12 +4154,19 @@
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
       <c r="AK63" s="2"/>
-    </row>
-    <row r="64" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="20"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="AL63" s="2"/>
+    </row>
+    <row r="64" spans="2:38" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="36">
+        <v>45646</v>
+      </c>
+      <c r="E64" s="36">
+        <v>45650</v>
+      </c>
       <c r="F64" s="7"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3608,250 +4199,17 @@
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
       <c r="AK64" s="2"/>
-    </row>
-    <row r="65" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="11"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="2"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-    </row>
-    <row r="66" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="20"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-    </row>
-    <row r="67" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="20"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-    </row>
-    <row r="68" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="2"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-    </row>
-    <row r="69" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="2"/>
-    </row>
-    <row r="70" spans="2:37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
+      <c r="AL64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
